--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,367 +441,794 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>brand_model</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>old_price</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>new_price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>discount_price</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>url_model</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>delivery_date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>number_of_rev</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Укороченное оверсайз зип худи с принтом old money Tishka</t>
+          <t xml:space="preserve"> / Подвеска Metallica y2k Металлика мерч</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/471320606/detail.aspx</t>
+          <t>Dekal Store</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2499₽</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>680₽</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Товар подешевел на 72%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://clck.ru/3R6qU6</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Послезавтра</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>95 оценок</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Облегающий лонгслив скимс с застежкой на кнопках affliction Tishka</t>
+          <t xml:space="preserve"> / Медиатор с лого Metallica</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/500551519/detail.aspx</t>
+          <t>S-Market</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>400₽</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>144₽</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Товар подешевел на 64%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://clck.ru/3R6qU8</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Послезавтра</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>199 оценок</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Свитер оверсайз вязаный укороченный теплый Tass</t>
+          <t xml:space="preserve"> / Медиатор Metallica</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/544475341/detail.aspx</t>
+          <t>S-Market</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>400₽</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1292₽</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Товар подорожал на 223%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://clck.ru/3R6qUP</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Послезавтра</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>91 оценка</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Кофта оверсайз укороченная вязаная SALSET</t>
+          <t xml:space="preserve"> / Рок, наклейки, Metallica, Стикеры, подарок</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/296855050/detail.aspx</t>
+          <t>Slipknot</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>400₽</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>780₽</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Товар подорожал на 95%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://clck.ru/3R6qUK</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Послезавтра</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4,7</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>109 оценок</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Оверсайз лонгслив с принтом у2к y2k PINTÁ</t>
+          <t xml:space="preserve"> / Футболка Metallica</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/618354867/detail.aspx</t>
+          <t>RockUp</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3800₽</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1042₽</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Товар подешевел на 72%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://clck.ru/3R6qUG</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5 января</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>4,9</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>374 оценки</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>худи с капюшоном теплый с начесом варенка Babelini</t>
+          <t xml:space="preserve"> / Футболка Metallica Металлика рок</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/498241515/detail.aspx</t>
+          <t>METAL FASHION</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1800₽</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>798₽</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Товар подешевел на 55%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://clck.ru/3R6qUH</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Послезавтра</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>338 оценок</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Свитшот оверсайз теплый с воротником на молнии Old money ТЕЛОДВИЖЕНИЯ</t>
+          <t xml:space="preserve"> / Бандана Metallica лого (131)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/234030771/detail.aspx</t>
+          <t>РОК-ПОЗИТИФ</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>300₽</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>841₽</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Товар подорожал на 180%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://clck.ru/3R6qUR</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3 января</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>75 оценок</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Кофта оверсайз вязаная с вырезом укороченная SALSET</t>
+          <t xml:space="preserve"> / Обложка на паспорт Metallica</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/276136446/detail.aspx</t>
+          <t>Animonica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>980₽</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>749₽</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Товар подешевел на 23%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://clck.ru/3R6qUS</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4 января</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>3 оценки</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Базовый облегающий лонгслив скимс на застежке с кнопками Tishka</t>
+          <t xml:space="preserve"> / Футболка оверсайз с винтажным принтом y2k Металлика</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/500423944/detail.aspx</t>
+          <t>IVIPRINT</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3700₽</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>765₽</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Товар подешевел на 79%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://clck.ru/3R6qUX</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Послезавтра</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>4,9</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1 326 оценок</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Оверсайз лонгслив с необработанными краями с принтом swag Tishka</t>
+          <t xml:space="preserve"> / Постер - группа Metallica - Rock Metal Legends 1988</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/570031560/detail.aspx</t>
+          <t>О-Хочу!</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>385₽</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>755₽</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Товар подорожал на 96%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://clck.ru/3R6qUW</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3 января</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4,9</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>928 оценок</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cвитшот теплый оверсайз y2k с начесом ТЕЛОДВИЖЕНИЯ</t>
+          <t xml:space="preserve"> / Черная футболка Metallica Металлика</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/145845807/detail.aspx</t>
+          <t>Rock-Rock</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2190₽</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>386₽</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Товар подешевел на 82%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://clck.ru/3R6qUN</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Послезавтра</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>4,9</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>796 оценок</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Кофта нарядная больших размеров офисная JANAR love</t>
+          <t xml:space="preserve"> / Футболка Metallica</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/173279773/detail.aspx</t>
+          <t>Rock Stuff</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>999₽</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>918₽</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Товар подешевел на 8%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://clck.ru/3R6qUT</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Послезавтра</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>4,9</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>682 оценки</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Оверсайз лонгслив с необработанными краями с принтом swag Tishka</t>
+          <t xml:space="preserve"> / Футболка METALLICA MEOWTALLICA мяуталлика</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/580139483/detail.aspx</t>
+          <t>DREAMS FAMILY BRAND</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1800₽</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>815₽</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Товар подешевел на 54%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://clck.ru/3R6qUa</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Послезавтра</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>4,9</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>189 оценок</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Обтягивающий лонгслив скимс с капюшоном cutecore Tishka</t>
+          <t xml:space="preserve"> / Монета сувенирная Metallica</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/545066620/detail.aspx</t>
+          <t>РОК-ПОЗИТИФ</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1200₽</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1271₽</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Товар подорожал на 5%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://clck.ru/3R6qUL</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3 января</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>49 оценок</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Лонгслив skims облегающий с длинным рукавом KUMPELLA</t>
+          <t xml:space="preserve"> / Футболка Metallica Металлика</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/499395021/detail.aspx</t>
+          <t>METAL FASHION</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1800₽</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1292₽</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Товар подешевел на 28%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://clck.ru/3R6qUV</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Послезавтра</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1 075 оценок</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Однотонный облегающий базовый лонгслив скимс y2k Tishka</t>
+          <t xml:space="preserve"> / Футболка Metallica Металлика</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/458589155/detail.aspx</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Спортивная кофта больших размеров Iren Renetti</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>https://www.wildberries.ru/catalog/246705765/detail.aspx</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Кофта оверсайз укороченная вязаная джемпер SALSET</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>https://www.wildberries.ru/catalog/268511686/detail.aspx</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Кофта, асимметричный лонгслив нарядный в офис Iren Renetti</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>https://www.wildberries.ru/catalog/544013790/detail.aspx</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Облегающий лонгслив скимс с открытыми плечами cutecore Tishka</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>https://www.wildberries.ru/catalog/485503758/detail.aspx</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Лонгслив оверсайз для девочек подростков хлопок Апрель</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>https://www.wildberries.ru/catalog/498189882/detail.aspx</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Кофта нарядная больших размеров теплая JANAR love</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>https://www.wildberries.ru/catalog/173279763/detail.aspx</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Укороченное оверсайз зип худи с принтом affliction Tishka</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>https://www.wildberries.ru/catalog/485306716/detail.aspx</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Обтягивающий лонгслив скимс с капюшоном swag Tishka</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>https://www.wildberries.ru/catalog/471380754/detail.aspx</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Белый лонгслив облегающий укороченный LIMO</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>https://www.wildberries.ru/catalog/248954289/detail.aspx</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Худи мужское с капюшоном без начеса кофта черная y2k Макс-Экстрим</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>https://www.wildberries.ru/catalog/252157511/detail.aspx</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Лонгслив оверсайз черный 8BASE</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>https://www.wildberries.ru/catalog/179931387/detail.aspx</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Кофта теплая вязаная в полоску оверсайз с вырезом STROCHKA BRAND</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>https://www.wildberries.ru/catalog/171624788/detail.aspx</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Оверсайз худи багги с принтом на спине гранж Tishka</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>https://www.wildberries.ru/catalog/618196567/detail.aspx</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Облегающий лонгслив скимс с капюшоном с принтом гранж Tishka</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>https://www.wildberries.ru/catalog/580224095/detail.aspx</t>
+          <t>METAL FASHION</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1800₽</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>780₽</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Товар подешевел на 56%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://clck.ru/3R6qUU</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Послезавтра</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>4,9</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>305 оценок</t>
         </is>
       </c>
     </row>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,25 +456,20 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>discount_price</t>
+          <t>url_model</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>url_model</t>
+          <t>delivery_date</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>delivery_date</t>
+          <t>rating</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>rating</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>number_of_rev</t>
         </is>
@@ -483,235 +478,210 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> / Подвеска Metallica y2k Металлика мерч</t>
+          <t xml:space="preserve"> / Медиатор с лого Metallica</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dekal Store</t>
+          <t>S-Market</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2499₽</t>
+          <t>400₽</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>680₽</t>
+          <t>648₽</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Товар подешевел на 72%</t>
+          <t>https://clck.ru/3R6qU8</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://clck.ru/3R6qU6</t>
+          <t>Послезавтра</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Послезавтра</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4,8</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>95 оценок</t>
+          <t>209 оценок</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> / Медиатор с лого Metallica</t>
+          <t xml:space="preserve"> / Подвеска Metallica y2k Металлика мерч</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S-Market</t>
+          <t>Dekal Store</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>400₽</t>
+          <t>2499₽</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>144₽</t>
+          <t>1232₽</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Товар подешевел на 64%</t>
+          <t>https://clck.ru/3R6qU6</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://clck.ru/3R6qU8</t>
+          <t>Завтра</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Послезавтра</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4,8</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>199 оценок</t>
+          <t>97 оценок</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> / Медиатор Metallica</t>
+          <t xml:space="preserve"> / Футболка Metallica</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S-Market</t>
+          <t>RockUp</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>400₽</t>
+          <t>3800₽</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1292₽</t>
+          <t>309₽</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Товар подорожал на 223%</t>
+          <t>https://clck.ru/3R6qUG</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://clck.ru/3R6qUP</t>
+          <t>Завтра</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Послезавтра</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>91 оценка</t>
+          <t>377 оценок</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> / Рок, наклейки, Metallica, Стикеры, подарок</t>
+          <t xml:space="preserve"> / Календарь 2026 настенный, Metallica</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Slipknot</t>
+          <t>CherryPie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>400₽</t>
+          <t>1388₽</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>780₽</t>
+          <t>127₽</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Товар подорожал на 95%</t>
+          <t>https://clck.ru/3RD43J</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://clck.ru/3R6qUK</t>
+          <t>14 января</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Послезавтра</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4,7</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>109 оценок</t>
+          <t>4 оценки</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> / Футболка Metallica</t>
+          <t xml:space="preserve"> / Рок, наклейки, Metallica, Стикеры, подарок</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RockUp</t>
+          <t>Slipknot</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3800₽</t>
+          <t>400₽</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1042₽</t>
+          <t>744₽</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Товар подешевел на 72%</t>
+          <t>https://clck.ru/3R6qUK</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://clck.ru/3R6qUG</t>
+          <t>Завтра</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>5 января</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>4,9</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>374 оценки</t>
+          <t>111 оценок</t>
         </is>
       </c>
     </row>
@@ -733,408 +703,363 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>798₽</t>
+          <t>197₽</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Товар подешевел на 55%</t>
+          <t>https://clck.ru/3R6qUH</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://clck.ru/3R6qUH</t>
+          <t>Завтра</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Послезавтра</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>4,8</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>338 оценок</t>
+          <t>343 оценки</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> / Бандана Metallica лого (131)</t>
+          <t xml:space="preserve"> / Медиатор Metallica</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>РОК-ПОЗИТИФ</t>
+          <t>S-Market</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>300₽</t>
+          <t>400₽</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>841₽</t>
+          <t>715₽</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Товар подорожал на 180%</t>
+          <t>https://clck.ru/3R6qUP</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://clck.ru/3R6qUR</t>
+          <t>Завтра</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3 января</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>75 оценок</t>
+          <t>92 оценки</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> / Обложка на паспорт Metallica</t>
+          <t xml:space="preserve"> / Бандана Metallica лого (131)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Animonica</t>
+          <t>РОК-ПОЗИТИФ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>980₽</t>
+          <t>300₽</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>749₽</t>
+          <t>761₽</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Товар подешевел на 23%</t>
+          <t>https://clck.ru/3R6qUR</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://clck.ru/3R6qUS</t>
+          <t>14 января</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4 января</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>3 оценки</t>
+          <t>77 оценок</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> / Футболка оверсайз с винтажным принтом y2k Металлика</t>
+          <t xml:space="preserve"> / Постер - группа Metallica - Rock Metal Legends 1988</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IVIPRINT</t>
+          <t>О-Хочу!</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3700₽</t>
+          <t>385₽</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>765₽</t>
+          <t>744₽</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Товар подешевел на 79%</t>
+          <t>https://clck.ru/3R6qUW</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://clck.ru/3R6qUX</t>
+          <t>13 января</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Послезавтра</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4,9</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1 326 оценок</t>
+          <t>931 оценка</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> / Постер - группа Metallica - Rock Metal Legends 1988</t>
+          <t xml:space="preserve"> / Монета сувенирная Metallica</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>О-Хочу!</t>
+          <t>РОК-ПОЗИТИФ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>385₽</t>
+          <t>1200₽</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>755₽</t>
+          <t>730₽</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Товар подорожал на 96%</t>
+          <t>https://clck.ru/3R6qUL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://clck.ru/3R6qUW</t>
+          <t>14 января</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3 января</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>4,9</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>928 оценок</t>
+          <t>49 оценок</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> / Черная футболка Metallica Металлика</t>
+          <t xml:space="preserve"> / Футболка с принтом y2k рок панк</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rock-Rock</t>
+          <t>ALCRAFT ROCK</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2190₽</t>
+          <t>2300₽</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>386₽</t>
+          <t>778₽</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Товар подешевел на 82%</t>
+          <t>https://clck.ru/3R6qUk</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://clck.ru/3R6qUN</t>
+          <t>Завтра</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Послезавтра</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4,9</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>796 оценок</t>
+          <t>95 оценок</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> / Футболка Metallica</t>
+          <t xml:space="preserve"> / Футболка Metallica Металлика</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Rock Stuff</t>
+          <t>METAL FASHION</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>999₽</t>
+          <t>1800₽</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>918₽</t>
+          <t>448₽</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Товар подешевел на 8%</t>
+          <t>https://clck.ru/3R6qUV</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://clck.ru/3R6qUT</t>
+          <t>Завтра</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Послезавтра</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4,9</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>682 оценки</t>
+          <t>1 077 оценок</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> / Футболка METALLICA MEOWTALLICA мяуталлика</t>
+          <t xml:space="preserve"> / Футболка Metallica</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DREAMS FAMILY BRAND</t>
+          <t>Rock Stuff</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1800₽</t>
+          <t>999₽</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>815₽</t>
+          <t>721₽</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Товар подешевел на 54%</t>
+          <t>https://clck.ru/3R6qUT</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://clck.ru/3R6qUa</t>
+          <t>Завтра</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Послезавтра</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>4,9</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>189 оценок</t>
+          <t>685 оценок</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> / Монета сувенирная Metallica</t>
+          <t xml:space="preserve"> / Футболка Metallica Металлика</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>РОК-ПОЗИТИФ</t>
+          <t>METAL FASHION</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1200₽</t>
+          <t>1800₽</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1271₽</t>
+          <t>1381₽</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Товар подорожал на 5%</t>
+          <t>https://clck.ru/334jyX</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://clck.ru/3R6qUL</t>
+          <t>Завтра</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3 января</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>49 оценок</t>
+          <t>2 288 оценок</t>
         </is>
       </c>
     </row>
@@ -1156,79 +1081,195 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1292₽</t>
+          <t>216₽</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Товар подешевел на 28%</t>
+          <t>https://clck.ru/3R6qUU</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://clck.ru/3R6qUV</t>
+          <t>Завтра</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Послезавтра</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>4,8</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1 075 оценок</t>
+          <t>309 оценок</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> / Футболка Metallica Металлика</t>
+          <t xml:space="preserve"> / Обложка на паспорт Metallica</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>METAL FASHION</t>
+          <t>Animonica</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1800₽</t>
+          <t>980₽</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>780₽</t>
+          <t>1232₽</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Товар подешевел на 56%</t>
+          <t>https://clck.ru/3R6qUS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://clck.ru/3R6qUU</t>
+          <t>14 января</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>3 оценки</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> / Футболка с принтом Metallica Металлика</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>RED LINE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3690₽</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>247₽</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://clck.ru/3R6qUb</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>15 января</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1 оценка</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> / Футболка Metallica</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Rock Stuff</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>999₽</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1232₽</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://clck.ru/3R6qUZ</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>Послезавтра</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>445 оценок</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> / Брелок ремувка metallica</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1-я Наклейка</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1846₽</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>278₽</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://clck.ru/3RD43N</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>14 января</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>4,9</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>305 оценок</t>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>34 оценки</t>
         </is>
       </c>
     </row>
